--- a/Mlp/Cli/Csv/Auferma/aufermaInterno.xlsx
+++ b/Mlp/Cli/Csv/Auferma/aufermaInterno.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1471">
   <si>
     <t>Codigo</t>
   </si>
@@ -4416,6 +4416,18 @@
   </si>
   <si>
     <t>Placa Encast. Beko HILW 64222 S (GB)</t>
+  </si>
+  <si>
+    <t>Fogão Gás Beko FSG 62000 DXL (GN)</t>
+  </si>
+  <si>
+    <t>GCR1010</t>
+  </si>
+  <si>
+    <t>Rádio Relógio Grundig SonoClock SCN 120</t>
+  </si>
+  <si>
+    <t>Rádio Relógio Despertador. 1 Alarme por rádio ou sinal sonoro. Snooze 9 min. Indicador de alarme. Rádio FM/AM. Alimentação 230V e bateria de segurança. LED cor verde. Medidas: 18,5 x 4,5 x 13,0 cm. Cor: Prata/Titane</t>
   </si>
 </sst>
 </file>
@@ -4473,12 +4485,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4780,7 +4792,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L426"/>
+  <dimension ref="A1:L428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4822,7 +4834,7 @@
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4836,7 +4848,7 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>187</v>
       </c>
       <c r="E2" s="2">
@@ -4874,7 +4886,7 @@
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>259</v>
       </c>
       <c r="E3" s="2">
@@ -4912,7 +4924,7 @@
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>305</v>
       </c>
       <c r="E4" s="2">
@@ -4950,7 +4962,7 @@
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>325</v>
       </c>
       <c r="E5" s="2">
@@ -4988,7 +5000,7 @@
       <c r="C6" s="2">
         <v>67160</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>216</v>
       </c>
       <c r="E6" s="2">
@@ -5024,7 +5036,7 @@
       <c r="C7" s="2">
         <v>67156</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>345</v>
       </c>
       <c r="E7" s="2">
@@ -5060,7 +5072,7 @@
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>486</v>
       </c>
       <c r="E8" s="2">
@@ -5096,7 +5108,7 @@
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>575</v>
       </c>
       <c r="E9" s="2">
@@ -5132,7 +5144,7 @@
       <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>670</v>
       </c>
       <c r="E10" s="2">
@@ -5170,7 +5182,7 @@
       <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>411</v>
       </c>
       <c r="E11" s="2">
@@ -5208,7 +5220,7 @@
       <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>438</v>
       </c>
       <c r="E12" s="2">
@@ -5246,7 +5258,7 @@
       <c r="C13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>492</v>
       </c>
       <c r="E13" s="2">
@@ -5284,7 +5296,7 @@
       <c r="C14" s="2">
         <v>46236</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>381</v>
       </c>
       <c r="E14" s="2">
@@ -5322,7 +5334,7 @@
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>403</v>
       </c>
       <c r="E15" s="2">
@@ -5360,7 +5372,7 @@
       <c r="C16" s="2">
         <v>46227</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>429</v>
       </c>
       <c r="E16" s="2">
@@ -5398,7 +5410,7 @@
       <c r="C17" s="2">
         <v>46336</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>384</v>
       </c>
       <c r="E17" s="2">
@@ -5436,7 +5448,7 @@
       <c r="C18" s="2">
         <v>46228</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>445</v>
       </c>
       <c r="E18" s="2">
@@ -5474,7 +5486,7 @@
       <c r="C19" s="2">
         <v>46229</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>467</v>
       </c>
       <c r="E19" s="2">
@@ -5512,7 +5524,7 @@
       <c r="C20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>507</v>
       </c>
       <c r="E20" s="2">
@@ -5537,7 +5549,7 @@
         <v>49</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12" customHeight="1" ht="12.8">
@@ -5550,7 +5562,7 @@
       <c r="C21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>528</v>
       </c>
       <c r="E21" s="2">
@@ -5588,7 +5600,7 @@
       <c r="C22" s="2">
         <v>46389</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>549</v>
       </c>
       <c r="E22" s="2">
@@ -5626,7 +5638,7 @@
       <c r="C23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>484</v>
       </c>
       <c r="E23" s="2">
@@ -5662,7 +5674,7 @@
       <c r="C24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>438</v>
       </c>
       <c r="E24" s="2">
@@ -5700,7 +5712,7 @@
       <c r="C25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>529</v>
       </c>
       <c r="E25" s="2">
@@ -5738,7 +5750,7 @@
       <c r="C26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>502</v>
       </c>
       <c r="E26" s="2">
@@ -5776,7 +5788,7 @@
       <c r="C27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>660</v>
       </c>
       <c r="E27" s="2">
@@ -5814,7 +5826,7 @@
       <c r="C28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>552</v>
       </c>
       <c r="E28" s="2">
@@ -5852,7 +5864,7 @@
       <c r="C29" s="2">
         <v>46376</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>609</v>
       </c>
       <c r="E29" s="2">
@@ -5890,7 +5902,7 @@
       <c r="C30" s="2">
         <v>46375</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>599</v>
       </c>
       <c r="E30" s="2">
@@ -5928,7 +5940,7 @@
       <c r="C31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>539</v>
       </c>
       <c r="E31" s="2">
@@ -5966,7 +5978,7 @@
       <c r="C32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>564</v>
       </c>
       <c r="E32" s="2">
@@ -6004,7 +6016,7 @@
       <c r="C33" s="2">
         <v>46225</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>489</v>
       </c>
       <c r="E33" s="2">
@@ -6042,7 +6054,7 @@
       <c r="C34" s="2">
         <v>46226</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>509</v>
       </c>
       <c r="E34" s="2">
@@ -6080,7 +6092,7 @@
       <c r="C35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>715</v>
       </c>
       <c r="E35" s="2">
@@ -6118,7 +6130,7 @@
       <c r="C36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>757</v>
       </c>
       <c r="E36" s="2">
@@ -6156,7 +6168,7 @@
       <c r="C37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>689</v>
       </c>
       <c r="E37" s="2">
@@ -6194,7 +6206,7 @@
       <c r="C38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>719</v>
       </c>
       <c r="E38" s="2">
@@ -6232,7 +6244,7 @@
       <c r="C39" s="2">
         <v>46334</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>709</v>
       </c>
       <c r="E39" s="2">
@@ -6270,7 +6282,7 @@
       <c r="C40" s="2">
         <v>46333</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>623</v>
       </c>
       <c r="E40" s="2">
@@ -6308,7 +6320,7 @@
       <c r="C41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>389</v>
       </c>
       <c r="E41" s="2">
@@ -6346,7 +6358,7 @@
       <c r="C42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>769</v>
       </c>
       <c r="E42" s="2">
@@ -6384,7 +6396,7 @@
       <c r="C43" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>819</v>
       </c>
       <c r="E43" s="2">
@@ -6422,7 +6434,7 @@
       <c r="C44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>713</v>
       </c>
       <c r="E44" s="2">
@@ -6460,7 +6472,7 @@
       <c r="C45" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>769</v>
       </c>
       <c r="E45" s="2">
@@ -6498,7 +6510,7 @@
       <c r="C46" s="2">
         <v>59007</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>1109</v>
       </c>
       <c r="E46" s="2">
@@ -6536,7 +6548,7 @@
       <c r="C47" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>390</v>
       </c>
       <c r="E47" s="2">
@@ -6572,7 +6584,7 @@
       <c r="C48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>491</v>
       </c>
       <c r="E48" s="2">
@@ -6608,7 +6620,7 @@
       <c r="C49" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>434</v>
       </c>
       <c r="E49" s="2">
@@ -6644,7 +6656,7 @@
       <c r="C50" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>665</v>
       </c>
       <c r="E50" s="2">
@@ -6680,7 +6692,7 @@
       <c r="C51" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>560</v>
       </c>
       <c r="E51" s="2">
@@ -6716,7 +6728,7 @@
       <c r="C52" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>516</v>
       </c>
       <c r="E52" s="2">
@@ -6752,7 +6764,7 @@
       <c r="C53" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>464</v>
       </c>
       <c r="E53" s="2">
@@ -6788,7 +6800,7 @@
       <c r="C54" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>745</v>
       </c>
       <c r="E54" s="2">
@@ -6824,7 +6836,7 @@
       <c r="C55" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>512</v>
       </c>
       <c r="E55" s="2">
@@ -6860,7 +6872,7 @@
       <c r="C56" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>544</v>
       </c>
       <c r="E56" s="2">
@@ -6885,7 +6897,7 @@
         <v>195</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:12" customHeight="1" ht="12.8">
@@ -6898,7 +6910,7 @@
       <c r="C57" s="2">
         <v>46838</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>516</v>
       </c>
       <c r="E57" s="2">
@@ -6936,7 +6948,7 @@
       <c r="C58" s="2">
         <v>46840</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>609</v>
       </c>
       <c r="E58" s="2">
@@ -6974,7 +6986,7 @@
       <c r="C59" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>226</v>
       </c>
       <c r="E59" s="2">
@@ -7012,7 +7024,7 @@
       <c r="C60" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>243</v>
       </c>
       <c r="E60" s="2">
@@ -7037,7 +7049,7 @@
         <v>19</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:12" customHeight="1" ht="12.8">
@@ -7050,7 +7062,7 @@
       <c r="C61" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>445</v>
       </c>
       <c r="E61" s="2">
@@ -7088,7 +7100,7 @@
       <c r="C62" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>463</v>
       </c>
       <c r="E62" s="2">
@@ -7126,7 +7138,7 @@
       <c r="C63" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>357</v>
       </c>
       <c r="E63" s="2">
@@ -7164,7 +7176,7 @@
       <c r="C64" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>452</v>
       </c>
       <c r="E64" s="2">
@@ -7202,7 +7214,7 @@
       <c r="C65" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>523</v>
       </c>
       <c r="E65" s="2">
@@ -7240,7 +7252,7 @@
       <c r="C66" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>393</v>
       </c>
       <c r="E66" s="2">
@@ -7278,7 +7290,7 @@
       <c r="C67" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>471</v>
       </c>
       <c r="E67" s="2">
@@ -7316,7 +7328,7 @@
       <c r="C68" s="2">
         <v>46195</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>397</v>
       </c>
       <c r="E68" s="2">
@@ -7354,7 +7366,7 @@
       <c r="C69" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>397</v>
       </c>
       <c r="E69" s="2">
@@ -7379,7 +7391,7 @@
         <v>34</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:12" customHeight="1" ht="12.8">
@@ -7392,7 +7404,7 @@
       <c r="C70" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>423</v>
       </c>
       <c r="E70" s="2">
@@ -7417,7 +7429,7 @@
         <v>34</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:12" customHeight="1" ht="12.8">
@@ -7430,7 +7442,7 @@
       <c r="C71" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>480</v>
       </c>
       <c r="E71" s="2">
@@ -7468,7 +7480,7 @@
       <c r="C72" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>544</v>
       </c>
       <c r="E72" s="2">
@@ -7506,7 +7518,7 @@
       <c r="C73" s="2">
         <v>46779</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>494</v>
       </c>
       <c r="E73" s="2">
@@ -7544,7 +7556,7 @@
       <c r="C74" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <v>669</v>
       </c>
       <c r="E74" s="2">
@@ -7582,7 +7594,7 @@
       <c r="C75" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>728</v>
       </c>
       <c r="E75" s="2">
@@ -7620,7 +7632,7 @@
       <c r="C76" s="2">
         <v>46765</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>659</v>
       </c>
       <c r="E76" s="2">
@@ -7658,7 +7670,7 @@
       <c r="C77" s="2">
         <v>46778</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>619</v>
       </c>
       <c r="E77" s="2">
@@ -7696,7 +7708,7 @@
       <c r="C78" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>522</v>
       </c>
       <c r="E78" s="2">
@@ -7734,7 +7746,7 @@
       <c r="C79" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="3">
         <v>560</v>
       </c>
       <c r="E79" s="2">
@@ -7772,7 +7784,7 @@
       <c r="C80" s="2">
         <v>46313</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="3">
         <v>547</v>
       </c>
       <c r="E80" s="2">
@@ -7810,7 +7822,7 @@
       <c r="C81" s="2">
         <v>46813</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="3">
         <v>344</v>
       </c>
       <c r="E81" s="2">
@@ -7848,7 +7860,7 @@
       <c r="C82" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>394</v>
       </c>
       <c r="E82" s="2">
@@ -7886,7 +7898,7 @@
       <c r="C83" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="3">
         <v>295</v>
       </c>
       <c r="E83" s="2">
@@ -7911,7 +7923,7 @@
         <v>34</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:12" customHeight="1" ht="12.8">
@@ -7924,7 +7936,7 @@
       <c r="C84" s="2">
         <v>46392</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="3">
         <v>206</v>
       </c>
       <c r="E84" s="2">
@@ -7949,7 +7961,7 @@
         <v>34</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:12" customHeight="1" ht="12.8">
@@ -7962,7 +7974,7 @@
       <c r="C85" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="3">
         <v>238</v>
       </c>
       <c r="E85" s="2">
@@ -7987,7 +7999,7 @@
         <v>34</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:12" customHeight="1" ht="12.8">
@@ -8000,7 +8012,7 @@
       <c r="C86" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="3">
         <v>809</v>
       </c>
       <c r="E86" s="2">
@@ -8038,7 +8050,7 @@
       <c r="C87" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="3">
         <v>345</v>
       </c>
       <c r="E87" s="2">
@@ -8076,7 +8088,7 @@
       <c r="C88" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="3">
         <v>550</v>
       </c>
       <c r="E88" s="2">
@@ -8114,7 +8126,7 @@
       <c r="C89" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="3">
         <v>145</v>
       </c>
       <c r="E89" s="2">
@@ -8152,7 +8164,7 @@
       <c r="C90" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="3">
         <v>99</v>
       </c>
       <c r="E90" s="2">
@@ -8190,7 +8202,7 @@
       <c r="C91" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>79</v>
       </c>
       <c r="E91" s="2">
@@ -8228,7 +8240,7 @@
       <c r="C92" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="3">
         <v>170</v>
       </c>
       <c r="E92" s="2">
@@ -8266,7 +8278,7 @@
       <c r="C93" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="3">
         <v>312</v>
       </c>
       <c r="E93" s="2">
@@ -8304,7 +8316,7 @@
       <c r="C94" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="3">
         <v>149</v>
       </c>
       <c r="E94" s="2">
@@ -8342,7 +8354,7 @@
       <c r="C95" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="3">
         <v>105</v>
       </c>
       <c r="E95" s="2">
@@ -8380,7 +8392,7 @@
       <c r="C96" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="3">
         <v>119</v>
       </c>
       <c r="E96" s="2">
@@ -8418,7 +8430,7 @@
       <c r="C97" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="3">
         <v>140</v>
       </c>
       <c r="E97" s="2">
@@ -8456,7 +8468,7 @@
       <c r="C98" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="3">
         <v>163</v>
       </c>
       <c r="E98" s="2">
@@ -8494,7 +8506,7 @@
       <c r="C99" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="3">
         <v>289</v>
       </c>
       <c r="E99" s="2">
@@ -8532,7 +8544,7 @@
       <c r="C100" s="2">
         <v>48128</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="3">
         <v>289</v>
       </c>
       <c r="E100" s="2">
@@ -8570,7 +8582,7 @@
       <c r="C101" s="2">
         <v>48133</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="3">
         <v>296</v>
       </c>
       <c r="E101" s="2">
@@ -8608,7 +8620,7 @@
       <c r="C102" s="2">
         <v>48132</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="3">
         <v>347</v>
       </c>
       <c r="E102" s="2">
@@ -8646,7 +8658,7 @@
       <c r="C103" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="3">
         <v>176</v>
       </c>
       <c r="E103" s="2">
@@ -8684,7 +8696,7 @@
       <c r="C104" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="3">
         <v>198</v>
       </c>
       <c r="E104" s="2">
@@ -8722,7 +8734,7 @@
       <c r="C105" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="3">
         <v>439</v>
       </c>
       <c r="E105" s="2">
@@ -8760,7 +8772,7 @@
       <c r="C106" s="2">
         <v>48131</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="3">
         <v>256</v>
       </c>
       <c r="E106" s="2">
@@ -8798,7 +8810,7 @@
       <c r="C107" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="3">
         <v>382</v>
       </c>
       <c r="E107" s="2">
@@ -8836,7 +8848,7 @@
       <c r="C108" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="3">
         <v>429</v>
       </c>
       <c r="E108" s="2">
@@ -8874,7 +8886,7 @@
       <c r="C109" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="3">
         <v>729</v>
       </c>
       <c r="E109" s="2">
@@ -8912,7 +8924,7 @@
       <c r="C110" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="3">
         <v>118</v>
       </c>
       <c r="E110" s="2">
@@ -8950,7 +8962,7 @@
       <c r="C111" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="3">
         <v>81</v>
       </c>
       <c r="E111" s="2">
@@ -8988,7 +9000,7 @@
       <c r="C112" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="3">
         <v>90</v>
       </c>
       <c r="E112" s="2">
@@ -9026,7 +9038,7 @@
       <c r="C113" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="3">
         <v>140</v>
       </c>
       <c r="E113" s="2">
@@ -9064,7 +9076,7 @@
       <c r="C114" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="3">
         <v>66</v>
       </c>
       <c r="E114" s="2">
@@ -9089,7 +9101,7 @@
         <v>335</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:12" customHeight="1" ht="12.8">
@@ -9102,7 +9114,7 @@
       <c r="C115" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="3">
         <v>102</v>
       </c>
       <c r="E115" s="2">
@@ -9127,7 +9139,7 @@
         <v>335</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:12" customHeight="1" ht="12.8">
@@ -9140,7 +9152,7 @@
       <c r="C116" s="2">
         <v>48116</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="3">
         <v>122</v>
       </c>
       <c r="E116" s="2">
@@ -9178,7 +9190,7 @@
       <c r="C117" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="3">
         <v>229</v>
       </c>
       <c r="E117" s="2">
@@ -9216,7 +9228,7 @@
       <c r="C118" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="3">
         <v>376</v>
       </c>
       <c r="E118" s="2">
@@ -9254,7 +9266,7 @@
       <c r="C119" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="3">
         <v>332</v>
       </c>
       <c r="E119" s="2">
@@ -9292,7 +9304,7 @@
       <c r="C120" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="3">
         <v>284</v>
       </c>
       <c r="E120" s="2">
@@ -9330,7 +9342,7 @@
       <c r="C121" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="3">
         <v>308</v>
       </c>
       <c r="E121" s="2">
@@ -9368,7 +9380,7 @@
       <c r="C122" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="3">
         <v>339</v>
       </c>
       <c r="E122" s="2">
@@ -9406,7 +9418,7 @@
       <c r="C123" s="2">
         <v>48655</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="3">
         <v>410</v>
       </c>
       <c r="E123" s="2">
@@ -9444,7 +9456,7 @@
       <c r="C124" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="3">
         <v>410</v>
       </c>
       <c r="E124" s="2">
@@ -9482,7 +9494,7 @@
       <c r="C125" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="3">
         <v>675</v>
       </c>
       <c r="E125" s="2">
@@ -9520,7 +9532,7 @@
       <c r="C126" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="3">
         <v>705</v>
       </c>
       <c r="E126" s="2">
@@ -9558,7 +9570,7 @@
       <c r="C127" s="2">
         <v>48657</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="3">
         <v>675</v>
       </c>
       <c r="E127" s="2">
@@ -9596,7 +9608,7 @@
       <c r="C128" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="3">
         <v>460</v>
       </c>
       <c r="E128" s="2">
@@ -9634,7 +9646,7 @@
       <c r="C129" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="3">
         <v>435</v>
       </c>
       <c r="E129" s="2">
@@ -9672,7 +9684,7 @@
       <c r="C130" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="3">
         <v>495</v>
       </c>
       <c r="E130" s="2">
@@ -9710,7 +9722,7 @@
       <c r="C131" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="3">
         <v>375</v>
       </c>
       <c r="E131" s="2">
@@ -9748,7 +9760,7 @@
       <c r="C132" s="2">
         <v>48078</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="3">
         <v>289</v>
       </c>
       <c r="E132" s="2">
@@ -9786,7 +9798,7 @@
       <c r="C133" s="2">
         <v>48075</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="3">
         <v>455</v>
       </c>
       <c r="E133" s="2">
@@ -9824,7 +9836,7 @@
       <c r="C134" s="2">
         <v>48076</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="3">
         <v>709</v>
       </c>
       <c r="E134" s="2">
@@ -9862,7 +9874,7 @@
       <c r="C135" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="3">
         <v>195</v>
       </c>
       <c r="E135" s="2">
@@ -9900,7 +9912,7 @@
       <c r="C136" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="3">
         <v>242</v>
       </c>
       <c r="E136" s="2">
@@ -9938,7 +9950,7 @@
       <c r="C137" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="3">
         <v>263</v>
       </c>
       <c r="E137" s="2">
@@ -9963,7 +9975,7 @@
         <v>464</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:12" customHeight="1" ht="12.8">
@@ -9976,7 +9988,7 @@
       <c r="C138" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="3">
         <v>470</v>
       </c>
       <c r="E138" s="2">
@@ -10014,7 +10026,7 @@
       <c r="C139" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="3">
         <v>273</v>
       </c>
       <c r="E139" s="2">
@@ -10052,7 +10064,7 @@
       <c r="C140" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="3">
         <v>286</v>
       </c>
       <c r="E140" s="2">
@@ -10090,7 +10102,7 @@
       <c r="C141" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="3">
         <v>298</v>
       </c>
       <c r="E141" s="2">
@@ -10128,7 +10140,7 @@
       <c r="C142" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="3">
         <v>298</v>
       </c>
       <c r="E142" s="2">
@@ -10166,7 +10178,7 @@
       <c r="C143" s="2">
         <v>48073</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="3">
         <v>470</v>
       </c>
       <c r="E143" s="2">
@@ -10204,7 +10216,7 @@
       <c r="C144" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="3">
         <v>379</v>
       </c>
       <c r="E144" s="2">
@@ -10242,7 +10254,7 @@
       <c r="C145" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="3">
         <v>379</v>
       </c>
       <c r="E145" s="2">
@@ -10280,7 +10292,7 @@
       <c r="C146" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="3">
         <v>345</v>
       </c>
       <c r="E146" s="2">
@@ -10318,7 +10330,7 @@
       <c r="C147" s="2">
         <v>48067</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="3">
         <v>385</v>
       </c>
       <c r="E147" s="2">
@@ -10356,7 +10368,7 @@
       <c r="C148" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="3">
         <v>550</v>
       </c>
       <c r="E148" s="2">
@@ -10394,7 +10406,7 @@
       <c r="C149" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="3">
         <v>482</v>
       </c>
       <c r="E149" s="2">
@@ -10432,7 +10444,7 @@
       <c r="C150" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="3">
         <v>537</v>
       </c>
       <c r="E150" s="2">
@@ -10470,7 +10482,7 @@
       <c r="C151" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="3">
         <v>442</v>
       </c>
       <c r="E151" s="2">
@@ -10508,7 +10520,7 @@
       <c r="C152" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="3">
         <v>559</v>
       </c>
       <c r="E152" s="2">
@@ -10546,7 +10558,7 @@
       <c r="C153" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D153" s="4">
+      <c r="D153" s="3">
         <v>615</v>
       </c>
       <c r="E153" s="2">
@@ -10584,7 +10596,7 @@
       <c r="C154" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="3">
         <v>652</v>
       </c>
       <c r="E154" s="2">
@@ -10622,7 +10634,7 @@
       <c r="C155" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="3">
         <v>367</v>
       </c>
       <c r="E155" s="2">
@@ -10660,7 +10672,7 @@
       <c r="C156" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="3">
         <v>684</v>
       </c>
       <c r="E156" s="2">
@@ -10698,7 +10710,7 @@
       <c r="C157" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="3">
         <v>905</v>
       </c>
       <c r="E157" s="2">
@@ -10736,7 +10748,7 @@
       <c r="C158" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D158" s="4">
+      <c r="D158" s="3">
         <v>1039</v>
       </c>
       <c r="E158" s="2">
@@ -10774,7 +10786,7 @@
       <c r="C159" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="3">
         <v>358</v>
       </c>
       <c r="E159" s="2">
@@ -10812,7 +10824,7 @@
       <c r="C160" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="3">
         <v>431</v>
       </c>
       <c r="E160" s="2">
@@ -10850,7 +10862,7 @@
       <c r="C161" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="3">
         <v>329</v>
       </c>
       <c r="E161" s="2">
@@ -10888,7 +10900,7 @@
       <c r="C162" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D162" s="4">
+      <c r="D162" s="3">
         <v>304</v>
       </c>
       <c r="E162" s="2">
@@ -10926,7 +10938,7 @@
       <c r="C163" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D163" s="3">
         <v>334</v>
       </c>
       <c r="E163" s="2">
@@ -10964,7 +10976,7 @@
       <c r="C164" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D164" s="4">
+      <c r="D164" s="3">
         <v>304</v>
       </c>
       <c r="E164" s="2">
@@ -11002,7 +11014,7 @@
       <c r="C165" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D165" s="4">
+      <c r="D165" s="3">
         <v>479</v>
       </c>
       <c r="E165" s="2">
@@ -11040,7 +11052,7 @@
       <c r="C166" s="2">
         <v>46316</v>
       </c>
-      <c r="D166" s="4">
+      <c r="D166" s="3">
         <v>489</v>
       </c>
       <c r="E166" s="2">
@@ -11078,7 +11090,7 @@
       <c r="C167" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D167" s="4">
+      <c r="D167" s="3">
         <v>665</v>
       </c>
       <c r="E167" s="2">
@@ -11116,7 +11128,7 @@
       <c r="C168" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D168" s="4">
+      <c r="D168" s="3">
         <v>719</v>
       </c>
       <c r="E168" s="2">
@@ -11154,7 +11166,7 @@
       <c r="C169" s="2">
         <v>46761</v>
       </c>
-      <c r="D169" s="4">
+      <c r="D169" s="3">
         <v>745</v>
       </c>
       <c r="E169" s="2">
@@ -11192,7 +11204,7 @@
       <c r="C170" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D170" s="4">
+      <c r="D170" s="3">
         <v>569</v>
       </c>
       <c r="E170" s="2">
@@ -11230,7 +11242,7 @@
       <c r="C171" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D171" s="4">
+      <c r="D171" s="3">
         <v>622</v>
       </c>
       <c r="E171" s="2">
@@ -11268,7 +11280,7 @@
       <c r="C172" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D172" s="4">
+      <c r="D172" s="3">
         <v>739</v>
       </c>
       <c r="E172" s="2">
@@ -11306,7 +11318,7 @@
       <c r="C173" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="D173" s="4">
+      <c r="D173" s="3">
         <v>405</v>
       </c>
       <c r="E173" s="2">
@@ -11344,7 +11356,7 @@
       <c r="C174" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D174" s="4">
+      <c r="D174" s="3">
         <v>385</v>
       </c>
       <c r="E174" s="2">
@@ -11382,7 +11394,7 @@
       <c r="C175" s="2">
         <v>46897</v>
       </c>
-      <c r="D175" s="4">
+      <c r="D175" s="3">
         <v>412</v>
       </c>
       <c r="E175" s="2">
@@ -11420,7 +11432,7 @@
       <c r="C176" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D176" s="4">
+      <c r="D176" s="3">
         <v>465</v>
       </c>
       <c r="E176" s="2">
@@ -11458,7 +11470,7 @@
       <c r="C177" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="3">
         <v>429</v>
       </c>
       <c r="E177" s="2">
@@ -11496,7 +11508,7 @@
       <c r="C178" s="2">
         <v>46898</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D178" s="3">
         <v>435</v>
       </c>
       <c r="E178" s="2">
@@ -11534,7 +11546,7 @@
       <c r="C179" s="2">
         <v>46894</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D179" s="3">
         <v>457</v>
       </c>
       <c r="E179" s="2">
@@ -11572,7 +11584,7 @@
       <c r="C180" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D180" s="4">
+      <c r="D180" s="3">
         <v>286</v>
       </c>
       <c r="E180" s="2">
@@ -11610,7 +11622,7 @@
       <c r="C181" s="2">
         <v>46318</v>
       </c>
-      <c r="D181" s="4">
+      <c r="D181" s="3">
         <v>329</v>
       </c>
       <c r="E181" s="2">
@@ -11648,7 +11660,7 @@
       <c r="C182" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D182" s="4">
+      <c r="D182" s="3">
         <v>334</v>
       </c>
       <c r="E182" s="2">
@@ -11686,7 +11698,7 @@
       <c r="C183" s="2">
         <v>46309</v>
       </c>
-      <c r="D183" s="4">
+      <c r="D183" s="3">
         <v>0</v>
       </c>
       <c r="E183" s="2">
@@ -11724,7 +11736,7 @@
       <c r="C184" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="D184" s="4">
+      <c r="D184" s="3">
         <v>364</v>
       </c>
       <c r="E184" s="2">
@@ -11762,7 +11774,7 @@
       <c r="C185" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D185" s="4">
+      <c r="D185" s="3">
         <v>392</v>
       </c>
       <c r="E185" s="2">
@@ -11800,7 +11812,7 @@
       <c r="C186" s="2">
         <v>46317</v>
       </c>
-      <c r="D186" s="4">
+      <c r="D186" s="3">
         <v>398</v>
       </c>
       <c r="E186" s="2">
@@ -11838,7 +11850,7 @@
       <c r="C187" s="2">
         <v>46223</v>
       </c>
-      <c r="D187" s="4">
+      <c r="D187" s="3">
         <v>435</v>
       </c>
       <c r="E187" s="2">
@@ -11876,7 +11888,7 @@
       <c r="C188" s="2">
         <v>46224</v>
       </c>
-      <c r="D188" s="4">
+      <c r="D188" s="3">
         <v>465</v>
       </c>
       <c r="E188" s="2">
@@ -11914,7 +11926,7 @@
       <c r="C189" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="D189" s="4">
+      <c r="D189" s="3">
         <v>522</v>
       </c>
       <c r="E189" s="2">
@@ -11952,7 +11964,7 @@
       <c r="C190" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="D190" s="4">
+      <c r="D190" s="3">
         <v>559</v>
       </c>
       <c r="E190" s="2">
@@ -11990,7 +12002,7 @@
       <c r="C191" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="3">
         <v>545</v>
       </c>
       <c r="E191" s="2">
@@ -12028,7 +12040,7 @@
       <c r="C192" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="D192" s="4">
+      <c r="D192" s="3">
         <v>348</v>
       </c>
       <c r="E192" s="2">
@@ -12066,7 +12078,7 @@
       <c r="C193" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="3">
         <v>277</v>
       </c>
       <c r="E193" s="2">
@@ -12104,7 +12116,7 @@
       <c r="C194" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="3">
         <v>422</v>
       </c>
       <c r="E194" s="2">
@@ -12142,7 +12154,7 @@
       <c r="C195" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="D195" s="4">
+      <c r="D195" s="3">
         <v>465</v>
       </c>
       <c r="E195" s="2">
@@ -12180,7 +12192,7 @@
       <c r="C196" s="2">
         <v>46769</v>
       </c>
-      <c r="D196" s="4">
+      <c r="D196" s="3">
         <v>437</v>
       </c>
       <c r="E196" s="2">
@@ -12218,7 +12230,7 @@
       <c r="C197" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D197" s="4">
+      <c r="D197" s="3">
         <v>478</v>
       </c>
       <c r="E197" s="2">
@@ -12256,7 +12268,7 @@
       <c r="C198" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="D198" s="4">
+      <c r="D198" s="3">
         <v>449</v>
       </c>
       <c r="E198" s="2">
@@ -12294,7 +12306,7 @@
       <c r="C199" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D199" s="4">
+      <c r="D199" s="3">
         <v>499</v>
       </c>
       <c r="E199" s="2">
@@ -12332,7 +12344,7 @@
       <c r="C200" s="2">
         <v>46768</v>
       </c>
-      <c r="D200" s="4">
+      <c r="D200" s="3">
         <v>465</v>
       </c>
       <c r="E200" s="2">
@@ -12370,7 +12382,7 @@
       <c r="C201" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="D201" s="4">
+      <c r="D201" s="3">
         <v>348</v>
       </c>
       <c r="E201" s="2">
@@ -12408,7 +12420,7 @@
       <c r="C202" s="2">
         <v>46361</v>
       </c>
-      <c r="D202" s="4">
+      <c r="D202" s="3">
         <v>188</v>
       </c>
       <c r="E202" s="2">
@@ -12446,7 +12458,7 @@
       <c r="C203" s="2">
         <v>46360</v>
       </c>
-      <c r="D203" s="4">
+      <c r="D203" s="3">
         <v>192</v>
       </c>
       <c r="E203" s="2">
@@ -12484,7 +12496,7 @@
       <c r="C204" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="D204" s="4">
+      <c r="D204" s="3">
         <v>220</v>
       </c>
       <c r="E204" s="2">
@@ -12522,7 +12534,7 @@
       <c r="C205" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="D205" s="4">
+      <c r="D205" s="3">
         <v>225</v>
       </c>
       <c r="E205" s="2">
@@ -12560,7 +12572,7 @@
       <c r="C206" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D206" s="4">
+      <c r="D206" s="3">
         <v>208</v>
       </c>
       <c r="E206" s="2">
@@ -12598,7 +12610,7 @@
       <c r="C207" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D207" s="4">
+      <c r="D207" s="3">
         <v>713</v>
       </c>
       <c r="E207" s="2">
@@ -12636,7 +12648,7 @@
       <c r="C208" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D208" s="4">
+      <c r="D208" s="3">
         <v>186</v>
       </c>
       <c r="E208" s="2">
@@ -12672,7 +12684,7 @@
       <c r="C209" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="D209" s="4">
+      <c r="D209" s="3">
         <v>267</v>
       </c>
       <c r="E209" s="2">
@@ -12710,7 +12722,7 @@
       <c r="C210" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D210" s="4">
+      <c r="D210" s="3">
         <v>455</v>
       </c>
       <c r="E210" s="2">
@@ -12746,7 +12758,7 @@
       <c r="C211" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="D211" s="4">
+      <c r="D211" s="3">
         <v>520</v>
       </c>
       <c r="E211" s="2">
@@ -12782,7 +12794,7 @@
       <c r="C212" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="D212" s="4">
+      <c r="D212" s="3">
         <v>181</v>
       </c>
       <c r="E212" s="2">
@@ -12818,7 +12830,7 @@
       <c r="C213" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="D213" s="4">
+      <c r="D213" s="3">
         <v>216</v>
       </c>
       <c r="E213" s="2">
@@ -12854,7 +12866,7 @@
       <c r="C214" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="D214" s="4">
+      <c r="D214" s="3">
         <v>419</v>
       </c>
       <c r="E214" s="2">
@@ -12890,7 +12902,7 @@
       <c r="C215" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="D215" s="4">
+      <c r="D215" s="3">
         <v>330</v>
       </c>
       <c r="E215" s="2">
@@ -12926,7 +12938,7 @@
       <c r="C216" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="D216" s="4">
+      <c r="D216" s="3">
         <v>464</v>
       </c>
       <c r="E216" s="2">
@@ -12962,7 +12974,7 @@
       <c r="C217" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="D217" s="4">
+      <c r="D217" s="3">
         <v>296</v>
       </c>
       <c r="E217" s="2">
@@ -13000,7 +13012,7 @@
       <c r="C218" s="2">
         <v>46814</v>
       </c>
-      <c r="D218" s="4">
+      <c r="D218" s="3">
         <v>286</v>
       </c>
       <c r="E218" s="2">
@@ -13038,7 +13050,7 @@
       <c r="C219" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="D219" s="4">
+      <c r="D219" s="3">
         <v>364</v>
       </c>
       <c r="E219" s="2">
@@ -13076,7 +13088,7 @@
       <c r="C220" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="D220" s="4">
+      <c r="D220" s="3">
         <v>350</v>
       </c>
       <c r="E220" s="2">
@@ -13114,7 +13126,7 @@
       <c r="C221" s="2">
         <v>46839</v>
       </c>
-      <c r="D221" s="4">
+      <c r="D221" s="3">
         <v>314</v>
       </c>
       <c r="E221" s="2">
@@ -13152,7 +13164,7 @@
       <c r="C222" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="D222" s="4">
+      <c r="D222" s="3">
         <v>291</v>
       </c>
       <c r="E222" s="2">
@@ -13190,7 +13202,7 @@
       <c r="C223" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="D223" s="4">
+      <c r="D223" s="3">
         <v>310</v>
       </c>
       <c r="E223" s="2">
@@ -13228,7 +13240,7 @@
       <c r="C224" s="2">
         <v>46829</v>
       </c>
-      <c r="D224" s="4">
+      <c r="D224" s="3">
         <v>477</v>
       </c>
       <c r="E224" s="2">
@@ -13253,7 +13265,7 @@
         <v>758</v>
       </c>
       <c r="L224" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:12" customHeight="1" ht="12.8">
@@ -13266,7 +13278,7 @@
       <c r="C225" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="D225" s="4">
+      <c r="D225" s="3">
         <v>314</v>
       </c>
       <c r="E225" s="2">
@@ -13304,7 +13316,7 @@
       <c r="C226" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="D226" s="4">
+      <c r="D226" s="3">
         <v>343</v>
       </c>
       <c r="E226" s="2">
@@ -13342,7 +13354,7 @@
       <c r="C227" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D227" s="4">
+      <c r="D227" s="3">
         <v>1389</v>
       </c>
       <c r="E227" s="2">
@@ -13380,7 +13392,7 @@
       <c r="C228" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="D228" s="4">
+      <c r="D228" s="3">
         <v>1205</v>
       </c>
       <c r="E228" s="2">
@@ -13418,7 +13430,7 @@
       <c r="C229" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="D229" s="4">
+      <c r="D229" s="3">
         <v>1105</v>
       </c>
       <c r="E229" s="2">
@@ -13456,7 +13468,7 @@
       <c r="C230" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="D230" s="4">
+      <c r="D230" s="3">
         <v>1269</v>
       </c>
       <c r="E230" s="2">
@@ -13494,7 +13506,7 @@
       <c r="C231" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="D231" s="4">
+      <c r="D231" s="3">
         <v>1259</v>
       </c>
       <c r="E231" s="2">
@@ -13532,7 +13544,7 @@
       <c r="C232" s="2">
         <v>46351</v>
       </c>
-      <c r="D232" s="4">
+      <c r="D232" s="3">
         <v>969</v>
       </c>
       <c r="E232" s="2">
@@ -13570,7 +13582,7 @@
       <c r="C233" s="2">
         <v>46345</v>
       </c>
-      <c r="D233" s="4">
+      <c r="D233" s="3">
         <v>963</v>
       </c>
       <c r="E233" s="2">
@@ -13608,7 +13620,7 @@
       <c r="C234" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="D234" s="4">
+      <c r="D234" s="3">
         <v>0</v>
       </c>
       <c r="E234" s="2">
@@ -13646,7 +13658,7 @@
       <c r="C235" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="D235" s="4">
+      <c r="D235" s="3">
         <v>963</v>
       </c>
       <c r="E235" s="2">
@@ -13684,7 +13696,7 @@
       <c r="C236" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="D236" s="4">
+      <c r="D236" s="3">
         <v>979</v>
       </c>
       <c r="E236" s="2">
@@ -13722,7 +13734,7 @@
       <c r="C237" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="D237" s="4">
+      <c r="D237" s="3">
         <v>867</v>
       </c>
       <c r="E237" s="2">
@@ -13760,7 +13772,7 @@
       <c r="C238" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="D238" s="4">
+      <c r="D238" s="3">
         <v>1489</v>
       </c>
       <c r="E238" s="2">
@@ -13798,7 +13810,7 @@
       <c r="C239" s="2">
         <v>46755</v>
       </c>
-      <c r="D239" s="4">
+      <c r="D239" s="3">
         <v>1149</v>
       </c>
       <c r="E239" s="2">
@@ -13836,7 +13848,7 @@
       <c r="C240" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="D240" s="4">
+      <c r="D240" s="3">
         <v>1375</v>
       </c>
       <c r="E240" s="2">
@@ -13874,7 +13886,7 @@
       <c r="C241" s="2">
         <v>46353</v>
       </c>
-      <c r="D241" s="4">
+      <c r="D241" s="3">
         <v>625</v>
       </c>
       <c r="E241" s="2">
@@ -13912,7 +13924,7 @@
       <c r="C242" s="2">
         <v>46352</v>
       </c>
-      <c r="D242" s="4">
+      <c r="D242" s="3">
         <v>666</v>
       </c>
       <c r="E242" s="2">
@@ -13950,7 +13962,7 @@
       <c r="C243" s="2">
         <v>59010</v>
       </c>
-      <c r="D243" s="4">
+      <c r="D243" s="3">
         <v>2719</v>
       </c>
       <c r="E243" s="2">
@@ -13988,7 +14000,7 @@
       <c r="C244" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="D244" s="4">
+      <c r="D244" s="3">
         <v>1509</v>
       </c>
       <c r="E244" s="2">
@@ -14026,7 +14038,7 @@
       <c r="C245" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="D245" s="4">
+      <c r="D245" s="3">
         <v>929</v>
       </c>
       <c r="E245" s="2">
@@ -14062,7 +14074,7 @@
       <c r="C246" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="D246" s="4">
+      <c r="D246" s="3">
         <v>1049</v>
       </c>
       <c r="E246" s="2">
@@ -14098,7 +14110,7 @@
       <c r="C247" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="D247" s="4">
+      <c r="D247" s="3">
         <v>1039</v>
       </c>
       <c r="E247" s="2">
@@ -14134,7 +14146,7 @@
       <c r="C248" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="D248" s="4">
+      <c r="D248" s="3">
         <v>779</v>
       </c>
       <c r="E248" s="2">
@@ -14170,7 +14182,7 @@
       <c r="C249" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="D249" s="4">
+      <c r="D249" s="3">
         <v>1099</v>
       </c>
       <c r="E249" s="2">
@@ -14206,7 +14218,7 @@
       <c r="C250" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="D250" s="4">
+      <c r="D250" s="3">
         <v>784</v>
       </c>
       <c r="E250" s="2">
@@ -14242,7 +14254,7 @@
       <c r="C251" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="D251" s="4">
+      <c r="D251" s="3">
         <v>699</v>
       </c>
       <c r="E251" s="2">
@@ -14278,7 +14290,7 @@
       <c r="C252" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="D252" s="4">
+      <c r="D252" s="3">
         <v>1349</v>
       </c>
       <c r="E252" s="2">
@@ -14314,7 +14326,7 @@
       <c r="C253" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="D253" s="4">
+      <c r="D253" s="3">
         <v>1169</v>
       </c>
       <c r="E253" s="2">
@@ -14350,7 +14362,7 @@
       <c r="C254" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="D254" s="4">
+      <c r="D254" s="3">
         <v>820</v>
       </c>
       <c r="E254" s="2">
@@ -14386,7 +14398,7 @@
       <c r="C255" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="D255" s="4">
+      <c r="D255" s="3">
         <v>789</v>
       </c>
       <c r="E255" s="2">
@@ -14422,7 +14434,7 @@
       <c r="C256" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="D256" s="4">
+      <c r="D256" s="3">
         <v>380</v>
       </c>
       <c r="E256" s="2">
@@ -14458,7 +14470,7 @@
       <c r="C257" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="D257" s="4">
+      <c r="D257" s="3">
         <v>119</v>
       </c>
       <c r="E257" s="2">
@@ -14494,7 +14506,7 @@
       <c r="C258" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="D258" s="4">
+      <c r="D258" s="3">
         <v>161</v>
       </c>
       <c r="E258" s="2">
@@ -14530,7 +14542,7 @@
       <c r="C259" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="D259" s="4">
+      <c r="D259" s="3">
         <v>0</v>
       </c>
       <c r="E259" s="2">
@@ -14566,7 +14578,7 @@
       <c r="C260" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="D260" s="4">
+      <c r="D260" s="3">
         <v>0</v>
       </c>
       <c r="E260" s="2">
@@ -14602,7 +14614,7 @@
       <c r="C261" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="D261" s="4">
+      <c r="D261" s="3">
         <v>470</v>
       </c>
       <c r="E261" s="2">
@@ -14627,7 +14639,7 @@
         <v>896</v>
       </c>
       <c r="L261" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262" spans="1:12" customHeight="1" ht="12.8">
@@ -14640,7 +14652,7 @@
       <c r="C262" s="2">
         <v>47197</v>
       </c>
-      <c r="D262" s="4">
+      <c r="D262" s="3">
         <v>495</v>
       </c>
       <c r="E262" s="2">
@@ -14678,7 +14690,7 @@
       <c r="C263" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="D263" s="4">
+      <c r="D263" s="3">
         <v>475</v>
       </c>
       <c r="E263" s="2">
@@ -14716,7 +14728,7 @@
       <c r="C264" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="D264" s="4">
+      <c r="D264" s="3">
         <v>495</v>
       </c>
       <c r="E264" s="2">
@@ -14754,7 +14766,7 @@
       <c r="C265" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="D265" s="4">
+      <c r="D265" s="3">
         <v>312</v>
       </c>
       <c r="E265" s="2">
@@ -14792,7 +14804,7 @@
       <c r="C266" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="D266" s="4">
+      <c r="D266" s="3">
         <v>340</v>
       </c>
       <c r="E266" s="2">
@@ -14830,7 +14842,7 @@
       <c r="C267" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="D267" s="4">
+      <c r="D267" s="3">
         <v>312</v>
       </c>
       <c r="E267" s="2">
@@ -14868,7 +14880,7 @@
       <c r="C268" s="2">
         <v>47642</v>
       </c>
-      <c r="D268" s="4">
+      <c r="D268" s="3">
         <v>316</v>
       </c>
       <c r="E268" s="2">
@@ -14906,7 +14918,7 @@
       <c r="C269" s="2">
         <v>47643</v>
       </c>
-      <c r="D269" s="4">
+      <c r="D269" s="3">
         <v>334</v>
       </c>
       <c r="E269" s="2">
@@ -14944,7 +14956,7 @@
       <c r="C270" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="D270" s="4">
+      <c r="D270" s="3">
         <v>343</v>
       </c>
       <c r="E270" s="2">
@@ -14982,7 +14994,7 @@
       <c r="C271" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="D271" s="4">
+      <c r="D271" s="3">
         <v>364</v>
       </c>
       <c r="E271" s="2">
@@ -15020,7 +15032,7 @@
       <c r="C272" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="D272" s="4">
+      <c r="D272" s="3">
         <v>350</v>
       </c>
       <c r="E272" s="2">
@@ -15058,7 +15070,7 @@
       <c r="C273" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="D273" s="4">
+      <c r="D273" s="3">
         <v>364</v>
       </c>
       <c r="E273" s="2">
@@ -15083,7 +15095,7 @@
         <v>912</v>
       </c>
       <c r="L273" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="274" spans="1:12" customHeight="1" ht="12.8">
@@ -15096,7 +15108,7 @@
       <c r="C274" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="D274" s="4">
+      <c r="D274" s="3">
         <v>383</v>
       </c>
       <c r="E274" s="2">
@@ -15134,7 +15146,7 @@
       <c r="C275" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="D275" s="4">
+      <c r="D275" s="3">
         <v>415</v>
       </c>
       <c r="E275" s="2">
@@ -15172,7 +15184,7 @@
       <c r="C276" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="D276" s="4">
+      <c r="D276" s="3">
         <v>405</v>
       </c>
       <c r="E276" s="2">
@@ -15210,7 +15222,7 @@
       <c r="C277" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="D277" s="4">
+      <c r="D277" s="3">
         <v>429</v>
       </c>
       <c r="E277" s="2">
@@ -15248,7 +15260,7 @@
       <c r="C278" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="D278" s="4">
+      <c r="D278" s="3">
         <v>433</v>
       </c>
       <c r="E278" s="2">
@@ -15286,7 +15298,7 @@
       <c r="C279" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="D279" s="4">
+      <c r="D279" s="3">
         <v>414</v>
       </c>
       <c r="E279" s="2">
@@ -15324,7 +15336,7 @@
       <c r="C280" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="D280" s="4">
+      <c r="D280" s="3">
         <v>454</v>
       </c>
       <c r="E280" s="2">
@@ -15362,7 +15374,7 @@
       <c r="C281" s="2">
         <v>47640</v>
       </c>
-      <c r="D281" s="4">
+      <c r="D281" s="3">
         <v>454</v>
       </c>
       <c r="E281" s="2">
@@ -15400,7 +15412,7 @@
       <c r="C282" s="2">
         <v>47625</v>
       </c>
-      <c r="D282" s="4">
+      <c r="D282" s="3">
         <v>479</v>
       </c>
       <c r="E282" s="2">
@@ -15438,7 +15450,7 @@
       <c r="C283" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="D283" s="4">
+      <c r="D283" s="3">
         <v>481</v>
       </c>
       <c r="E283" s="2">
@@ -15476,7 +15488,7 @@
       <c r="C284" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="D284" s="4">
+      <c r="D284" s="3">
         <v>319</v>
       </c>
       <c r="E284" s="2">
@@ -15514,7 +15526,7 @@
       <c r="C285" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="D285" s="4">
+      <c r="D285" s="3">
         <v>339</v>
       </c>
       <c r="E285" s="2">
@@ -15552,7 +15564,7 @@
       <c r="C286" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="D286" s="4">
+      <c r="D286" s="3">
         <v>319</v>
       </c>
       <c r="E286" s="2">
@@ -15590,7 +15602,7 @@
       <c r="C287" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="D287" s="4">
+      <c r="D287" s="3">
         <v>339</v>
       </c>
       <c r="E287" s="2">
@@ -15628,7 +15640,7 @@
       <c r="C288" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="D288" s="4">
+      <c r="D288" s="3">
         <v>354</v>
       </c>
       <c r="E288" s="2">
@@ -15666,7 +15678,7 @@
       <c r="C289" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="D289" s="4">
+      <c r="D289" s="3">
         <v>378</v>
       </c>
       <c r="E289" s="2">
@@ -15704,7 +15716,7 @@
       <c r="C290" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="D290" s="4">
+      <c r="D290" s="3">
         <v>395</v>
       </c>
       <c r="E290" s="2">
@@ -15742,7 +15754,7 @@
       <c r="C291" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="D291" s="4">
+      <c r="D291" s="3">
         <v>435</v>
       </c>
       <c r="E291" s="2">
@@ -15780,7 +15792,7 @@
       <c r="C292" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="D292" s="4">
+      <c r="D292" s="3">
         <v>325</v>
       </c>
       <c r="E292" s="2">
@@ -15818,7 +15830,7 @@
       <c r="C293" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="D293" s="4">
+      <c r="D293" s="3">
         <v>395</v>
       </c>
       <c r="E293" s="2">
@@ -15856,7 +15868,7 @@
       <c r="C294" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="D294" s="4">
+      <c r="D294" s="3">
         <v>426</v>
       </c>
       <c r="E294" s="2">
@@ -15894,7 +15906,7 @@
       <c r="C295" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="D295" s="4">
+      <c r="D295" s="3">
         <v>485</v>
       </c>
       <c r="E295" s="2">
@@ -15932,7 +15944,7 @@
       <c r="C296" s="2">
         <v>47641</v>
       </c>
-      <c r="D296" s="4">
+      <c r="D296" s="3">
         <v>600</v>
       </c>
       <c r="E296" s="2">
@@ -15970,7 +15982,7 @@
       <c r="C297" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="D297" s="4">
+      <c r="D297" s="3">
         <v>370</v>
       </c>
       <c r="E297" s="2">
@@ -16008,7 +16020,7 @@
       <c r="C298" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="D298" s="4">
+      <c r="D298" s="3">
         <v>375</v>
       </c>
       <c r="E298" s="2">
@@ -16046,7 +16058,7 @@
       <c r="C299" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="D299" s="4">
+      <c r="D299" s="3">
         <v>445</v>
       </c>
       <c r="E299" s="2">
@@ -16084,7 +16096,7 @@
       <c r="C300" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="D300" s="4">
+      <c r="D300" s="3">
         <v>315</v>
       </c>
       <c r="E300" s="2">
@@ -16122,7 +16134,7 @@
       <c r="C301" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="D301" s="4">
+      <c r="D301" s="3">
         <v>299</v>
       </c>
       <c r="E301" s="2">
@@ -16160,7 +16172,7 @@
       <c r="C302" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="D302" s="4">
+      <c r="D302" s="3">
         <v>315</v>
       </c>
       <c r="E302" s="2">
@@ -16198,7 +16210,7 @@
       <c r="C303" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="D303" s="4">
+      <c r="D303" s="3">
         <v>269</v>
       </c>
       <c r="E303" s="2">
@@ -16236,7 +16248,7 @@
       <c r="C304" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="D304" s="4">
+      <c r="D304" s="3">
         <v>555</v>
       </c>
       <c r="E304" s="2">
@@ -16274,7 +16286,7 @@
       <c r="C305" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="D305" s="4">
+      <c r="D305" s="3">
         <v>675</v>
       </c>
       <c r="E305" s="2">
@@ -16312,7 +16324,7 @@
       <c r="C306" s="2">
         <v>47181</v>
       </c>
-      <c r="D306" s="4">
+      <c r="D306" s="3">
         <v>515</v>
       </c>
       <c r="E306" s="2">
@@ -16350,7 +16362,7 @@
       <c r="C307" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="D307" s="4">
+      <c r="D307" s="3">
         <v>659</v>
       </c>
       <c r="E307" s="2">
@@ -16388,7 +16400,7 @@
       <c r="C308" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="D308" s="4">
+      <c r="D308" s="3">
         <v>399</v>
       </c>
       <c r="E308" s="2">
@@ -16426,7 +16438,7 @@
       <c r="C309" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="D309" s="4">
+      <c r="D309" s="3">
         <v>407</v>
       </c>
       <c r="E309" s="2">
@@ -16464,7 +16476,7 @@
       <c r="C310" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="D310" s="4">
+      <c r="D310" s="3">
         <v>346</v>
       </c>
       <c r="E310" s="2">
@@ -16502,7 +16514,7 @@
       <c r="C311" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="D311" s="4">
+      <c r="D311" s="3">
         <v>357</v>
       </c>
       <c r="E311" s="2">
@@ -16540,7 +16552,7 @@
       <c r="C312" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="D312" s="4">
+      <c r="D312" s="3">
         <v>496</v>
       </c>
       <c r="E312" s="2">
@@ -16578,7 +16590,7 @@
       <c r="C313" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="D313" s="4">
+      <c r="D313" s="3">
         <v>367</v>
       </c>
       <c r="E313" s="2">
@@ -16616,7 +16628,7 @@
       <c r="C314" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="D314" s="4">
+      <c r="D314" s="3">
         <v>515</v>
       </c>
       <c r="E314" s="2">
@@ -16654,7 +16666,7 @@
       <c r="C315" s="2">
         <v>47190</v>
       </c>
-      <c r="D315" s="4">
+      <c r="D315" s="3">
         <v>462</v>
       </c>
       <c r="E315" s="2">
@@ -16692,7 +16704,7 @@
       <c r="C316" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="D316" s="4">
+      <c r="D316" s="3">
         <v>455</v>
       </c>
       <c r="E316" s="2">
@@ -16730,7 +16742,7 @@
       <c r="C317" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="D317" s="4">
+      <c r="D317" s="3">
         <v>455</v>
       </c>
       <c r="E317" s="2">
@@ -16768,7 +16780,7 @@
       <c r="C318" s="2">
         <v>47188</v>
       </c>
-      <c r="D318" s="4">
+      <c r="D318" s="3">
         <v>615</v>
       </c>
       <c r="E318" s="2">
@@ -16806,7 +16818,7 @@
       <c r="C319" s="2">
         <v>47187</v>
       </c>
-      <c r="D319" s="4">
+      <c r="D319" s="3">
         <v>499</v>
       </c>
       <c r="E319" s="2">
@@ -16844,7 +16856,7 @@
       <c r="C320" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="D320" s="4">
+      <c r="D320" s="3">
         <v>425</v>
       </c>
       <c r="E320" s="2">
@@ -16882,7 +16894,7 @@
       <c r="C321" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="D321" s="4">
+      <c r="D321" s="3">
         <v>329</v>
       </c>
       <c r="E321" s="2">
@@ -16920,7 +16932,7 @@
       <c r="C322" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="D322" s="4">
+      <c r="D322" s="3">
         <v>357</v>
       </c>
       <c r="E322" s="2">
@@ -16958,7 +16970,7 @@
       <c r="C323" s="2">
         <v>47186</v>
       </c>
-      <c r="D323" s="4">
+      <c r="D323" s="3">
         <v>375</v>
       </c>
       <c r="E323" s="2">
@@ -16996,7 +17008,7 @@
       <c r="C324" s="2">
         <v>47191</v>
       </c>
-      <c r="D324" s="4">
+      <c r="D324" s="3">
         <v>379</v>
       </c>
       <c r="E324" s="2">
@@ -17034,7 +17046,7 @@
       <c r="C325" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="D325" s="4">
+      <c r="D325" s="3">
         <v>405</v>
       </c>
       <c r="E325" s="2">
@@ -17072,7 +17084,7 @@
       <c r="C326" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="D326" s="4">
+      <c r="D326" s="3">
         <v>269</v>
       </c>
       <c r="E326" s="2">
@@ -17110,7 +17122,7 @@
       <c r="C327" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="D327" s="4">
+      <c r="D327" s="3">
         <v>365</v>
       </c>
       <c r="E327" s="2">
@@ -17148,7 +17160,7 @@
       <c r="C328" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="D328" s="4">
+      <c r="D328" s="3">
         <v>299</v>
       </c>
       <c r="E328" s="2">
@@ -17186,7 +17198,7 @@
       <c r="C329" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="D329" s="4">
+      <c r="D329" s="3">
         <v>440</v>
       </c>
       <c r="E329" s="2">
@@ -17224,7 +17236,7 @@
       <c r="C330" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="D330" s="4">
+      <c r="D330" s="3">
         <v>440</v>
       </c>
       <c r="E330" s="2">
@@ -17262,7 +17274,7 @@
       <c r="C331" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="D331" s="4">
+      <c r="D331" s="3">
         <v>390</v>
       </c>
       <c r="E331" s="2">
@@ -17300,7 +17312,7 @@
       <c r="C332" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="D332" s="4">
+      <c r="D332" s="3">
         <v>660</v>
       </c>
       <c r="E332" s="2">
@@ -17338,7 +17350,7 @@
       <c r="C333" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="D333" s="4">
+      <c r="D333" s="3">
         <v>515</v>
       </c>
       <c r="E333" s="2">
@@ -17376,7 +17388,7 @@
       <c r="C334" s="2">
         <v>47497</v>
       </c>
-      <c r="D334" s="4">
+      <c r="D334" s="3">
         <v>510</v>
       </c>
       <c r="E334" s="2">
@@ -17414,7 +17426,7 @@
       <c r="C335" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="D335" s="4">
+      <c r="D335" s="3">
         <v>520</v>
       </c>
       <c r="E335" s="2">
@@ -17452,7 +17464,7 @@
       <c r="C336" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="D336" s="4">
+      <c r="D336" s="3">
         <v>437</v>
       </c>
       <c r="E336" s="2">
@@ -17490,7 +17502,7 @@
       <c r="C337" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="D337" s="4">
+      <c r="D337" s="3">
         <v>455</v>
       </c>
       <c r="E337" s="2">
@@ -17528,7 +17540,7 @@
       <c r="C338" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="D338" s="4">
+      <c r="D338" s="3">
         <v>516</v>
       </c>
       <c r="E338" s="2">
@@ -17566,7 +17578,7 @@
       <c r="C339" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="D339" s="4">
+      <c r="D339" s="3">
         <v>525</v>
       </c>
       <c r="E339" s="2">
@@ -17604,7 +17616,7 @@
       <c r="C340" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="D340" s="4">
+      <c r="D340" s="3">
         <v>577</v>
       </c>
       <c r="E340" s="2">
@@ -17642,7 +17654,7 @@
       <c r="C341" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="D341" s="4">
+      <c r="D341" s="3">
         <v>0</v>
       </c>
       <c r="E341" s="2">
@@ -17680,7 +17692,7 @@
       <c r="C342" s="2">
         <v>59502</v>
       </c>
-      <c r="D342" s="4">
+      <c r="D342" s="3">
         <v>585</v>
       </c>
       <c r="E342" s="2">
@@ -17718,7 +17730,7 @@
       <c r="C343" s="2">
         <v>59508</v>
       </c>
-      <c r="D343" s="4">
+      <c r="D343" s="3">
         <v>830</v>
       </c>
       <c r="E343" s="2">
@@ -17756,7 +17768,7 @@
       <c r="C344" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="D344" s="4">
+      <c r="D344" s="3">
         <v>830</v>
       </c>
       <c r="E344" s="2">
@@ -17794,7 +17806,7 @@
       <c r="C345" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="D345" s="4">
+      <c r="D345" s="3">
         <v>392</v>
       </c>
       <c r="E345" s="2">
@@ -17830,7 +17842,7 @@
       <c r="C346" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="D346" s="4">
+      <c r="D346" s="3">
         <v>312</v>
       </c>
       <c r="E346" s="2">
@@ -17866,7 +17878,7 @@
       <c r="C347" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="D347" s="4">
+      <c r="D347" s="3">
         <v>275</v>
       </c>
       <c r="E347" s="2">
@@ -17902,7 +17914,7 @@
       <c r="C348" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="D348" s="4">
+      <c r="D348" s="3">
         <v>519</v>
       </c>
       <c r="E348" s="2">
@@ -17938,7 +17950,7 @@
       <c r="C349" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="D349" s="4">
+      <c r="D349" s="3">
         <v>0</v>
       </c>
       <c r="E349" s="2">
@@ -17974,7 +17986,7 @@
       <c r="C350" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="D350" s="4">
+      <c r="D350" s="3">
         <v>348</v>
       </c>
       <c r="E350" s="2">
@@ -18012,7 +18024,7 @@
       <c r="C351" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="D351" s="4">
+      <c r="D351" s="3">
         <v>348</v>
       </c>
       <c r="E351" s="2">
@@ -18050,7 +18062,7 @@
       <c r="C352" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="D352" s="4">
+      <c r="D352" s="3">
         <v>344</v>
       </c>
       <c r="E352" s="2">
@@ -18088,7 +18100,7 @@
       <c r="C353" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="D353" s="4">
+      <c r="D353" s="3">
         <v>396</v>
       </c>
       <c r="E353" s="2">
@@ -18126,7 +18138,7 @@
       <c r="C354" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="D354" s="4">
+      <c r="D354" s="3">
         <v>585</v>
       </c>
       <c r="E354" s="2">
@@ -18164,7 +18176,7 @@
       <c r="C355" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="D355" s="4">
+      <c r="D355" s="3">
         <v>615</v>
       </c>
       <c r="E355" s="2">
@@ -18202,7 +18214,7 @@
       <c r="C356" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="D356" s="4">
+      <c r="D356" s="3">
         <v>559</v>
       </c>
       <c r="E356" s="2">
@@ -18240,7 +18252,7 @@
       <c r="C357" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="D357" s="4">
+      <c r="D357" s="3">
         <v>480</v>
       </c>
       <c r="E357" s="2">
@@ -18278,7 +18290,7 @@
       <c r="C358" s="2">
         <v>47247</v>
       </c>
-      <c r="D358" s="4">
+      <c r="D358" s="3">
         <v>468</v>
       </c>
       <c r="E358" s="2">
@@ -18316,7 +18328,7 @@
       <c r="C359" s="2" t="s">
         <v>1241</v>
       </c>
-      <c r="D359" s="4">
+      <c r="D359" s="3">
         <v>479</v>
       </c>
       <c r="E359" s="2">
@@ -18354,7 +18366,7 @@
       <c r="C360" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="D360" s="4">
+      <c r="D360" s="3">
         <v>540</v>
       </c>
       <c r="E360" s="2">
@@ -18392,7 +18404,7 @@
       <c r="C361" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="D361" s="4">
+      <c r="D361" s="3">
         <v>481</v>
       </c>
       <c r="E361" s="2">
@@ -18430,7 +18442,7 @@
       <c r="C362" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="D362" s="4">
+      <c r="D362" s="3">
         <v>546</v>
       </c>
       <c r="E362" s="2">
@@ -18468,7 +18480,7 @@
       <c r="C363" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="D363" s="4">
+      <c r="D363" s="3">
         <v>590</v>
       </c>
       <c r="E363" s="2">
@@ -18506,7 +18518,7 @@
       <c r="C364" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="D364" s="4">
+      <c r="D364" s="3">
         <v>649</v>
       </c>
       <c r="E364" s="2">
@@ -18544,7 +18556,7 @@
       <c r="C365" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="D365" s="4">
+      <c r="D365" s="3">
         <v>378</v>
       </c>
       <c r="E365" s="2">
@@ -18582,7 +18594,7 @@
       <c r="C366" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="D366" s="4">
+      <c r="D366" s="3">
         <v>404</v>
       </c>
       <c r="E366" s="2">
@@ -18620,7 +18632,7 @@
       <c r="C367" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="D367" s="4">
+      <c r="D367" s="3">
         <v>247</v>
       </c>
       <c r="E367" s="2">
@@ -18658,7 +18670,7 @@
       <c r="C368" s="2">
         <v>47246</v>
       </c>
-      <c r="D368" s="4">
+      <c r="D368" s="3">
         <v>249</v>
       </c>
       <c r="E368" s="2">
@@ -18696,7 +18708,7 @@
       <c r="C369" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="D369" s="4">
+      <c r="D369" s="3">
         <v>565</v>
       </c>
       <c r="E369" s="2">
@@ -18734,7 +18746,7 @@
       <c r="C370" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="D370" s="4">
+      <c r="D370" s="3">
         <v>675</v>
       </c>
       <c r="E370" s="2">
@@ -18772,7 +18784,7 @@
       <c r="C371" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="D371" s="4">
+      <c r="D371" s="3">
         <v>238</v>
       </c>
       <c r="E371" s="2">
@@ -18810,7 +18822,7 @@
       <c r="C372" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="D372" s="4">
+      <c r="D372" s="3">
         <v>282</v>
       </c>
       <c r="E372" s="2">
@@ -18848,7 +18860,7 @@
       <c r="C373" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="D373" s="4">
+      <c r="D373" s="3">
         <v>290</v>
       </c>
       <c r="E373" s="2">
@@ -18886,7 +18898,7 @@
       <c r="C374" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="D374" s="4">
+      <c r="D374" s="3">
         <v>282</v>
       </c>
       <c r="E374" s="2">
@@ -18924,7 +18936,7 @@
       <c r="C375" s="2" t="s">
         <v>1299</v>
       </c>
-      <c r="D375" s="4">
+      <c r="D375" s="3">
         <v>115</v>
       </c>
       <c r="E375" s="2">
@@ -18947,7 +18959,7 @@
         <v>674</v>
       </c>
       <c r="L375" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="376" spans="1:12" customHeight="1" ht="12.8">
@@ -18960,7 +18972,7 @@
       <c r="C376" s="2">
         <v>48082</v>
       </c>
-      <c r="D376" s="4">
+      <c r="D376" s="3">
         <v>332</v>
       </c>
       <c r="E376" s="2">
@@ -18998,7 +19010,7 @@
       <c r="C377" s="2">
         <v>48083</v>
       </c>
-      <c r="D377" s="4">
+      <c r="D377" s="3">
         <v>370</v>
       </c>
       <c r="E377" s="2">
@@ -19036,7 +19048,7 @@
       <c r="C378" s="2" t="s">
         <v>1308</v>
       </c>
-      <c r="D378" s="4">
+      <c r="D378" s="3">
         <v>370</v>
       </c>
       <c r="E378" s="2">
@@ -19074,7 +19086,7 @@
       <c r="C379" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="D379" s="4">
+      <c r="D379" s="3">
         <v>490</v>
       </c>
       <c r="E379" s="2">
@@ -19112,7 +19124,7 @@
       <c r="C380" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="D380" s="4">
+      <c r="D380" s="3">
         <v>147</v>
       </c>
       <c r="E380" s="2">
@@ -19150,7 +19162,7 @@
       <c r="C381" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="D381" s="4">
+      <c r="D381" s="3">
         <v>272</v>
       </c>
       <c r="E381" s="2">
@@ -19188,7 +19200,7 @@
       <c r="C382" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="D382" s="4">
+      <c r="D382" s="3">
         <v>198</v>
       </c>
       <c r="E382" s="2">
@@ -19226,7 +19238,7 @@
       <c r="C383" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="D383" s="4">
+      <c r="D383" s="3">
         <v>272</v>
       </c>
       <c r="E383" s="2">
@@ -19264,7 +19276,7 @@
       <c r="C384" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="D384" s="4">
+      <c r="D384" s="3">
         <v>220</v>
       </c>
       <c r="E384" s="2">
@@ -19302,7 +19314,7 @@
       <c r="C385" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="D385" s="4">
+      <c r="D385" s="3">
         <v>238</v>
       </c>
       <c r="E385" s="2">
@@ -19340,7 +19352,7 @@
       <c r="C386" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="D386" s="4">
+      <c r="D386" s="3">
         <v>318</v>
       </c>
       <c r="E386" s="2">
@@ -19378,7 +19390,7 @@
       <c r="C387" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="D387" s="4">
+      <c r="D387" s="3">
         <v>359</v>
       </c>
       <c r="E387" s="2">
@@ -19416,7 +19428,7 @@
       <c r="C388" s="2">
         <v>48565</v>
       </c>
-      <c r="D388" s="4">
+      <c r="D388" s="3">
         <v>325</v>
       </c>
       <c r="E388" s="2">
@@ -19454,7 +19466,7 @@
       <c r="C389" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="D389" s="4">
+      <c r="D389" s="3">
         <v>449</v>
       </c>
       <c r="E389" s="2">
@@ -19492,7 +19504,7 @@
       <c r="C390" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="D390" s="4">
+      <c r="D390" s="3">
         <v>517</v>
       </c>
       <c r="E390" s="2">
@@ -19530,7 +19542,7 @@
       <c r="C391" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="D391" s="4">
+      <c r="D391" s="3">
         <v>564</v>
       </c>
       <c r="E391" s="2">
@@ -19568,7 +19580,7 @@
       <c r="C392" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="D392" s="4">
+      <c r="D392" s="3">
         <v>372</v>
       </c>
       <c r="E392" s="2">
@@ -19606,7 +19618,7 @@
       <c r="C393" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="D393" s="4">
+      <c r="D393" s="3">
         <v>182</v>
       </c>
       <c r="E393" s="2">
@@ -19644,7 +19656,7 @@
       <c r="C394" s="2" t="s">
         <v>1371</v>
       </c>
-      <c r="D394" s="4">
+      <c r="D394" s="3">
         <v>272</v>
       </c>
       <c r="E394" s="2">
@@ -19682,7 +19694,7 @@
       <c r="C395" s="2" t="s">
         <v>1375</v>
       </c>
-      <c r="D395" s="4">
+      <c r="D395" s="3">
         <v>235</v>
       </c>
       <c r="E395" s="2">
@@ -19720,7 +19732,7 @@
       <c r="C396" s="2" t="s">
         <v>1379</v>
       </c>
-      <c r="D396" s="4">
+      <c r="D396" s="3">
         <v>215</v>
       </c>
       <c r="E396" s="2">
@@ -19758,7 +19770,7 @@
       <c r="C397" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="D397" s="4">
+      <c r="D397" s="3">
         <v>272</v>
       </c>
       <c r="E397" s="2">
@@ -19796,7 +19808,7 @@
       <c r="C398" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="D398" s="4">
+      <c r="D398" s="3">
         <v>147</v>
       </c>
       <c r="E398" s="2">
@@ -19834,7 +19846,7 @@
       <c r="C399" s="2">
         <v>48551</v>
       </c>
-      <c r="D399" s="4">
+      <c r="D399" s="3">
         <v>215</v>
       </c>
       <c r="E399" s="2">
@@ -19872,7 +19884,7 @@
       <c r="C400" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="D400" s="4">
+      <c r="D400" s="3">
         <v>99</v>
       </c>
       <c r="E400" s="2">
@@ -19910,7 +19922,7 @@
       <c r="C401" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="D401" s="4">
+      <c r="D401" s="3">
         <v>99</v>
       </c>
       <c r="E401" s="2">
@@ -19948,7 +19960,7 @@
       <c r="C402" s="2" t="s">
         <v>1397</v>
       </c>
-      <c r="D402" s="4">
+      <c r="D402" s="3">
         <v>121</v>
       </c>
       <c r="E402" s="2">
@@ -19986,7 +19998,7 @@
       <c r="C403" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="D403" s="4">
+      <c r="D403" s="3">
         <v>146</v>
       </c>
       <c r="E403" s="2">
@@ -20024,7 +20036,7 @@
       <c r="C404" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="D404" s="4">
+      <c r="D404" s="3">
         <v>513</v>
       </c>
       <c r="E404" s="2">
@@ -20062,7 +20074,7 @@
       <c r="C405" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="D405" s="4">
+      <c r="D405" s="3">
         <v>579</v>
       </c>
       <c r="E405" s="2">
@@ -20100,7 +20112,7 @@
       <c r="C406" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="D406" s="4">
+      <c r="D406" s="3">
         <v>579</v>
       </c>
       <c r="E406" s="2">
@@ -20138,7 +20150,7 @@
       <c r="C407" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="D407" s="4">
+      <c r="D407" s="3">
         <v>72</v>
       </c>
       <c r="E407" s="2">
@@ -20176,7 +20188,7 @@
       <c r="C408" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="D408" s="4">
+      <c r="D408" s="3">
         <v>72</v>
       </c>
       <c r="E408" s="2">
@@ -20214,7 +20226,7 @@
       <c r="C409" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="D409" s="4">
+      <c r="D409" s="3">
         <v>72</v>
       </c>
       <c r="E409" s="2">
@@ -20252,7 +20264,7 @@
       <c r="C410" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="D410" s="4">
+      <c r="D410" s="3">
         <v>72</v>
       </c>
       <c r="E410" s="2">
@@ -20290,7 +20302,7 @@
       <c r="C411" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="D411" s="4">
+      <c r="D411" s="3">
         <v>13</v>
       </c>
       <c r="E411" s="2">
@@ -20315,7 +20327,7 @@
         <v>1427</v>
       </c>
       <c r="L411" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="412" spans="1:12" customHeight="1" ht="12.8">
@@ -20328,7 +20340,7 @@
       <c r="C412" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="D412" s="4">
+      <c r="D412" s="3">
         <v>18</v>
       </c>
       <c r="E412" s="2">
@@ -20366,7 +20378,7 @@
       <c r="C413" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="D413" s="4">
+      <c r="D413" s="3">
         <v>28</v>
       </c>
       <c r="E413" s="2">
@@ -20404,7 +20416,7 @@
       <c r="C414" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="D414" s="4">
+      <c r="D414" s="3">
         <v>45</v>
       </c>
       <c r="E414" s="2">
@@ -20442,7 +20454,7 @@
       <c r="C415" s="2" t="s">
         <v>1437</v>
       </c>
-      <c r="D415" s="4">
+      <c r="D415" s="3">
         <v>45</v>
       </c>
       <c r="E415" s="2">
@@ -20480,7 +20492,7 @@
       <c r="C416" s="2" t="s">
         <v>1440</v>
       </c>
-      <c r="D416" s="4">
+      <c r="D416" s="3">
         <v>45</v>
       </c>
       <c r="E416" s="2">
@@ -20518,7 +20530,7 @@
       <c r="C417" s="2" t="s">
         <v>1443</v>
       </c>
-      <c r="D417" s="4">
+      <c r="D417" s="3">
         <v>45</v>
       </c>
       <c r="E417" s="2">
@@ -20556,7 +20568,7 @@
       <c r="C418" s="2" t="s">
         <v>1445</v>
       </c>
-      <c r="D418" s="4">
+      <c r="D418" s="3">
         <v>50</v>
       </c>
       <c r="E418" s="2">
@@ -20594,7 +20606,7 @@
       <c r="C419" s="2" t="s">
         <v>1447</v>
       </c>
-      <c r="D419" s="4">
+      <c r="D419" s="3">
         <v>50</v>
       </c>
       <c r="E419" s="2">
@@ -20632,7 +20644,7 @@
       <c r="C420" s="2" t="s">
         <v>1449</v>
       </c>
-      <c r="D420" s="4">
+      <c r="D420" s="3">
         <v>80</v>
       </c>
       <c r="E420" s="2">
@@ -20670,7 +20682,7 @@
       <c r="C421" s="2" t="s">
         <v>1453</v>
       </c>
-      <c r="D421" s="4">
+      <c r="D421" s="3">
         <v>41</v>
       </c>
       <c r="E421" s="2">
@@ -20706,7 +20718,7 @@
       <c r="C422" s="2" t="s">
         <v>1455</v>
       </c>
-      <c r="D422" s="4">
+      <c r="D422" s="3">
         <v>16.5</v>
       </c>
       <c r="E422" s="2">
@@ -20731,7 +20743,7 @@
         <v>1452</v>
       </c>
       <c r="L422" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="423" spans="1:12" customHeight="1" ht="12.8">
@@ -20744,7 +20756,7 @@
       <c r="C423" s="2" t="s">
         <v>1458</v>
       </c>
-      <c r="D423" s="4">
+      <c r="D423" s="3">
         <v>35</v>
       </c>
       <c r="E423" s="2">
@@ -20782,7 +20794,7 @@
       <c r="C424" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="D424" s="4">
+      <c r="D424" s="3">
         <v>35</v>
       </c>
       <c r="E424" s="2">
@@ -20820,7 +20832,7 @@
       <c r="C425" s="2" t="s">
         <v>1463</v>
       </c>
-      <c r="D425" s="4">
+      <c r="D425" s="3">
         <v>33</v>
       </c>
       <c r="E425" s="2">
@@ -20858,7 +20870,7 @@
       <c r="C426" s="2">
         <v>88571</v>
       </c>
-      <c r="D426" s="4">
+      <c r="D426" s="3">
         <v>215</v>
       </c>
       <c r="E426" s="2">
@@ -20883,6 +20895,82 @@
         <v>1368</v>
       </c>
       <c r="L426" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A427" s="2">
+        <v>350017088650</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C427" s="2">
+        <v>88650</v>
+      </c>
+      <c r="D427" s="3">
+        <v>308</v>
+      </c>
+      <c r="E427" s="2">
+        <v>49.1</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G427" s="2">
+        <v>110</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I427" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J427" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="K427" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="L427" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" customHeight="1" ht="12.8">
+      <c r="A428" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D428" s="3">
+        <v>17</v>
+      </c>
+      <c r="E428" s="2">
+        <v>0.436</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G428" s="2">
+        <v>230</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I428" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="J428" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="K428" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="L428" s="2" t="s">
         <v>50</v>
       </c>
     </row>
